--- a/data/instance/50/schedule_7.xlsx
+++ b/data/instance/50/schedule_7.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[hh]:mm:ss"/>
+    <numFmt formatCode="[hh]:mm:ss" numFmtId="164"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -46,16 +46,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -402,24 +402,22 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>BG85S</t>
-        </is>
+      <c r="B2" t="n">
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0.6388888888888888</v>
+        <v>0.03958333333333333</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.6597222222222222</v>
+        <v>0.0625</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>C19</t>
+          <t>C21</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -432,24 +430,22 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ET638</t>
-        </is>
+      <c r="B3" t="n">
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>0.6361111111111111</v>
+        <v>0.02013888888888889</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.6597222222222222</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>F34</t>
+          <t>F42</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -462,20 +458,18 @@
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>TR610</t>
-        </is>
+      <c r="B4" t="n">
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0.6430555555555556</v>
+        <v>0.02152777777777778</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.04583333333333333</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>D38</t>
+          <t>F56</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -492,24 +486,22 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>SQ962</t>
-        </is>
+      <c r="B5" t="n">
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>0.6527777777777778</v>
+        <v>0.02013888888888889</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.6736111111111112</v>
+        <v>0.04652777777777778</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>D33</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -522,24 +514,22 @@
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>TR302</t>
-        </is>
+      <c r="B6" t="n">
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0.6506944444444445</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0.6736111111111112</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>C17</t>
+          <t>F53</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -552,24 +542,22 @@
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>SQ946</t>
-        </is>
+      <c r="B7" t="n">
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>0.6597222222222222</v>
+        <v>0.002083333333333333</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0.6805555555555556</v>
+        <v>0.02569444444444444</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>E4</t>
+          <t>D44</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -582,20 +570,18 @@
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>3K661</t>
-        </is>
+      <c r="B8" t="n">
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>0.6604166666666667</v>
+        <v>0.01736111111111111</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0.6840277777777778</v>
+        <v>0.03819444444444445</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>E24</t>
+          <t>F54</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -612,24 +598,22 @@
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>MI756</t>
-        </is>
+      <c r="B9" t="n">
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>0.6631944444444444</v>
+        <v>0.06319444444444444</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>0.6840277777777778</v>
+        <v>0.08541666666666667</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>F36</t>
+          <t>F30</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -642,24 +626,22 @@
       <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>SQ406</t>
-        </is>
+      <c r="B10" t="n">
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>0.6631944444444444</v>
+        <v>0.05694444444444444</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>0.6840277777777778</v>
+        <v>0.07916666666666666</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>E8</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -672,20 +654,18 @@
       <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>MI226</t>
-        </is>
+      <c r="B11" t="n">
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>0.6645833333333333</v>
+        <v>0.06805555555555555</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>0.6875</v>
+        <v>0.09166666666666666</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>A15</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -702,24 +682,22 @@
       <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>3K765</t>
-        </is>
+      <c r="B12" t="n">
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>0.6673611111111111</v>
+        <v>0.075</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>0.6909722222222222</v>
+        <v>0.1006944444444444</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>D30</t>
+          <t>D46</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -732,20 +710,18 @@
       <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ID715</t>
-        </is>
+      <c r="B13" t="n">
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>0.6673611111111111</v>
+        <v>0.06388888888888888</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>0.6909722222222222</v>
+        <v>0.08680555555555555</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>F37</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -762,24 +738,22 @@
       <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>MH620</t>
-        </is>
+      <c r="B14" t="n">
+        <v>13</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>0.6680555555555555</v>
+        <v>0.05972222222222223</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>0.6909722222222222</v>
+        <v>0.08125</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>F53</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -792,20 +766,18 @@
       <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>MI608</t>
-        </is>
+      <c r="B15" t="n">
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>0.6680555555555555</v>
+        <v>0.06597222222222222</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>0.6909722222222222</v>
+        <v>0.09236111111111112</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>F32</t>
+          <t>A20</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -822,24 +794,22 @@
       <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>SQ482</t>
-        </is>
+      <c r="B16" t="n">
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>0.6673611111111111</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>0.6909722222222222</v>
+        <v>0.08194444444444444</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>B10</t>
+          <t>A19</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -852,20 +822,18 @@
       <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>TR492</t>
-        </is>
+      <c r="B17" t="n">
+        <v>16</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>0.6770833333333334</v>
+        <v>0.04513888888888889</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>0.6979166666666666</v>
+        <v>0.07222222222222222</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>D34</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -882,20 +850,18 @@
       <c r="A18" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>OD808</t>
-        </is>
+      <c r="B18" t="n">
+        <v>17</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>0.6854166666666667</v>
+        <v>0.07361111111111111</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A18</t>
+          <t>C15</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -912,24 +878,22 @@
       <c r="A19" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>SQ982</t>
-        </is>
+      <c r="B19" t="n">
+        <v>18</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>0.7152777777777778</v>
+        <v>0.09027777777777778</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>F41</t>
+          <t>C17</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -942,24 +906,22 @@
       <c r="A20" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>TR468</t>
-        </is>
+      <c r="B20" t="n">
+        <v>19</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>0.6923611111111111</v>
+        <v>0.0763888888888889</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>0.7152777777777778</v>
+        <v>0.1013888888888889</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>B5</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -972,24 +934,22 @@
       <c r="A21" t="n">
         <v>20</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>TR252</t>
-        </is>
+      <c r="B21" t="n">
+        <v>20</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>0.6979166666666666</v>
+        <v>0.05</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>0.71875</v>
+        <v>0.07569444444444444</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>C11</t>
+          <t>F57</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1002,24 +962,22 @@
       <c r="A22" t="n">
         <v>21</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>PG968</t>
-        </is>
+      <c r="B22" t="n">
+        <v>21</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>0.7013888888888888</v>
+        <v>0.07013888888888889</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.09444444444444444</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>D37</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1032,20 +990,18 @@
       <c r="A23" t="n">
         <v>22</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>SQ964</t>
-        </is>
+      <c r="B23" t="n">
+        <v>22</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>0.6986111111111111</v>
+        <v>0.07777777777777778</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.09861111111111111</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>F50</t>
+          <t>D47</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1062,24 +1018,22 @@
       <c r="A24" t="n">
         <v>23</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>MH608</t>
-        </is>
+      <c r="B24" t="n">
+        <v>23</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>0.7027777777777777</v>
+        <v>0.04375</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>0.7256944444444444</v>
+        <v>0.06597222222222222</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>F30</t>
+          <t>D34</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1092,20 +1046,18 @@
       <c r="A25" t="n">
         <v>24</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>SQ630</t>
-        </is>
+      <c r="B25" t="n">
+        <v>24</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>0.7020833333333333</v>
+        <v>0.06041666666666667</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>0.7256944444444444</v>
+        <v>0.08611111111111111</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1122,20 +1074,18 @@
       <c r="A26" t="n">
         <v>25</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>3K583</t>
-        </is>
+      <c r="B26" t="n">
+        <v>25</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>0.70625</v>
+        <v>0.05208333333333334</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>0.7291666666666666</v>
+        <v>0.07916666666666666</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>E27</t>
+          <t>A6</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1152,24 +1102,22 @@
       <c r="A27" t="n">
         <v>26</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>SQ186</t>
-        </is>
+      <c r="B27" t="n">
+        <v>26</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>0.7055555555555556</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>0.7291666666666666</v>
+        <v>0.1375</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>F56</t>
+          <t>A17</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1182,24 +1130,22 @@
       <c r="A28" t="n">
         <v>27</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>TR616</t>
-        </is>
+      <c r="B28" t="n">
+        <v>27</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.1173611111111111</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>0.7291666666666666</v>
+        <v>0.1416666666666667</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>D41</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1212,24 +1158,22 @@
       <c r="A29" t="n">
         <v>28</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>KL835</t>
-        </is>
+      <c r="B29" t="n">
+        <v>28</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>0.7097222222222223</v>
+        <v>0.09513888888888888</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>0.7326388888888888</v>
+        <v>0.1173611111111111</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>D42</t>
+          <t>A21</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1242,24 +1186,22 @@
       <c r="A30" t="n">
         <v>29</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>MI416</t>
-        </is>
+      <c r="B30" t="n">
+        <v>29</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>0.7152777777777778</v>
+        <v>0.1006944444444444</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>0.7361111111111112</v>
+        <v>0.1236111111111111</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>F37</t>
+          <t>B8</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1272,24 +1214,22 @@
       <c r="A31" t="n">
         <v>30</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>SQ448</t>
-        </is>
+      <c r="B31" t="n">
+        <v>30</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>0.7125</v>
+        <v>0.1055555555555556</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>0.7361111111111112</v>
+        <v>0.13125</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>F33</t>
+          <t>C19</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1302,20 +1242,18 @@
       <c r="A32" t="n">
         <v>31</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>GA835</t>
-        </is>
+      <c r="B32" t="n">
+        <v>31</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>0.71875</v>
+        <v>0.09097222222222222</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.1118055555555556</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>A9</t>
+          <t>F42</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1332,20 +1270,18 @@
       <c r="A33" t="n">
         <v>32</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>TR422</t>
-        </is>
+      <c r="B33" t="n">
+        <v>32</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>0.7263888888888889</v>
+        <v>0.08611111111111111</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>0.75</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>D30</t>
+          <t>D36</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1362,20 +1298,18 @@
       <c r="A34" t="n">
         <v>33</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>TR478</t>
-        </is>
+      <c r="B34" t="n">
+        <v>33</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>0.7263888888888889</v>
+        <v>0.09375</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>0.75</v>
+        <v>0.1145833333333333</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>D40</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1392,24 +1326,22 @@
       <c r="A35" t="n">
         <v>34</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>SQ948</t>
-        </is>
+      <c r="B35" t="n">
+        <v>34</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>0.7305555555555555</v>
+        <v>0.1131944444444444</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>0.7534722222222222</v>
+        <v>0.1375</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>F40</t>
+          <t>F41</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1422,24 +1354,22 @@
       <c r="A36" t="n">
         <v>35</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>TR460</t>
-        </is>
+      <c r="B36" t="n">
+        <v>35</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>0.7430555555555556</v>
+        <v>0.09236111111111112</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>0.7638888888888888</v>
+        <v>0.1152777777777778</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>D38</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1452,24 +1382,22 @@
       <c r="A37" t="n">
         <v>36</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>TR278</t>
-        </is>
+      <c r="B37" t="n">
+        <v>36</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>0.7444444444444445</v>
+        <v>0.1138888888888889</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>0.7673611111111112</v>
+        <v>0.1347222222222222</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>C19</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1482,24 +1410,22 @@
       <c r="A38" t="n">
         <v>37</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>TR652</t>
-        </is>
+      <c r="B38" t="n">
+        <v>37</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>0.7444444444444445</v>
+        <v>0.08680555555555555</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>0.7673611111111112</v>
+        <v>0.1125</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>C17</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1512,20 +1438,18 @@
       <c r="A39" t="n">
         <v>38</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>MI758</t>
-        </is>
+      <c r="B39" t="n">
+        <v>38</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>0.7472222222222222</v>
+        <v>0.1541666666666667</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.1763888888888889</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>F56</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -1542,20 +1466,18 @@
       <c r="A40" t="n">
         <v>39</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>SQ978</t>
-        </is>
+      <c r="B40" t="n">
+        <v>39</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>0.7513888888888889</v>
+        <v>0.1465277777777778</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>0.7743055555555556</v>
+        <v>0.1736111111111111</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>E22</t>
+          <t>F50</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -1572,20 +1494,18 @@
       <c r="A41" t="n">
         <v>40</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>NZ283</t>
-        </is>
+      <c r="B41" t="n">
+        <v>40</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>0.7569444444444444</v>
+        <v>0.1548611111111111</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.1791666666666667</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>A17</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -1602,24 +1522,22 @@
       <c r="A42" t="n">
         <v>41</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>SQ118</t>
-        </is>
+      <c r="B42" t="n">
+        <v>41</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>0.7541666666666667</v>
+        <v>0.1569444444444444</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.1784722222222222</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>E4</t>
+          <t>F60</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1632,24 +1550,22 @@
       <c r="A43" t="n">
         <v>42</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>SQ215</t>
-        </is>
+      <c r="B43" t="n">
+        <v>42</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>0.7569444444444444</v>
+        <v>0.15</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.175</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>A12</t>
+          <t>A19</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1662,24 +1578,22 @@
       <c r="A44" t="n">
         <v>43</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>SQ530</t>
-        </is>
+      <c r="B44" t="n">
+        <v>43</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>0.7541666666666667</v>
+        <v>0.1541666666666667</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.1798611111111111</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>B6</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1692,24 +1606,22 @@
       <c r="A45" t="n">
         <v>44</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>SQ966</t>
-        </is>
+      <c r="B45" t="n">
+        <v>44</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>0.7569444444444444</v>
+        <v>0.15</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.1715277777777778</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>E11</t>
+          <t>F52</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1722,24 +1634,22 @@
       <c r="A46" t="n">
         <v>45</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>TR266</t>
-        </is>
+      <c r="B46" t="n">
+        <v>45</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>0.7576388888888889</v>
+        <v>0.1506944444444444</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>0.78125</v>
+        <v>0.1756944444444444</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>D35</t>
+          <t>D42</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1752,24 +1662,22 @@
       <c r="A47" t="n">
         <v>46</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>3K541</t>
-        </is>
+      <c r="B47" t="n">
+        <v>46</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>0.7638888888888888</v>
+        <v>0.1583333333333333</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>0.7847222222222222</v>
+        <v>0.1819444444444444</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>E27</t>
+          <t>D46</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -1782,24 +1690,22 @@
       <c r="A48" t="n">
         <v>47</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>3K669</t>
-        </is>
+      <c r="B48" t="n">
+        <v>47</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>0.7645833333333333</v>
+        <v>0.1479166666666667</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>0.7881944444444444</v>
+        <v>0.1694444444444445</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>C11</t>
+          <t>B5</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -1812,20 +1718,18 @@
       <c r="A49" t="n">
         <v>48</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>SQ424</t>
-        </is>
+      <c r="B49" t="n">
+        <v>48</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>0.7673611111111112</v>
+        <v>0.1347222222222222</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>0.7881944444444444</v>
+        <v>0.1590277777777778</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -1842,24 +1746,22 @@
       <c r="A50" t="n">
         <v>49</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>MI238</t>
-        </is>
+      <c r="B50" t="n">
+        <v>49</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>0.7680555555555556</v>
+        <v>0.1590277777777778</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.1798611111111111</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -1872,20 +1774,18 @@
       <c r="A51" t="n">
         <v>50</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>MI354</t>
-        </is>
+      <c r="B51" t="n">
+        <v>50</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>0.7680555555555556</v>
+        <v>0.1604166666666667</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.18125</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>F52</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -1899,6 +1799,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/data/instance/50/schedule_7.xlsx
+++ b/data/instance/50/schedule_7.xlsx
@@ -406,14 +406,14 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0.03958333333333333</v>
+        <v>0.03472222222222222</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.0625</v>
+        <v>0.06111111111111111</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>C21</t>
+          <t>F54</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -434,10 +434,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>0.02013888888888889</v>
+        <v>0.02430555555555556</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.04513888888888889</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -462,14 +462,14 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0.02152777777777778</v>
+        <v>0.01458333333333333</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.04583333333333333</v>
+        <v>0.03958333333333333</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>F56</t>
+          <t>E26</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -490,14 +490,14 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>0.02013888888888889</v>
+        <v>0.0375</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.04652777777777778</v>
+        <v>0.06458333333333334</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>D33</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -518,14 +518,14 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0.008333333333333333</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.03611111111111111</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>F53</t>
+          <t>C21</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -546,18 +546,18 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>0.002083333333333333</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0.02569444444444444</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>D44</t>
+          <t>F52</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -574,14 +574,14 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>0.01736111111111111</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0.03819444444444445</v>
+        <v>0.03263888888888889</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>F54</t>
+          <t>F60</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -602,18 +602,18 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>0.06319444444444444</v>
+        <v>0.05416666666666667</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>0.08541666666666667</v>
+        <v>0.07847222222222222</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>F30</t>
+          <t>D32</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -630,18 +630,18 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>0.05694444444444444</v>
+        <v>0.07916666666666666</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>0.07916666666666666</v>
+        <v>0.1034722222222222</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>E8</t>
+          <t>F50</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -658,18 +658,18 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>0.06805555555555555</v>
+        <v>0.06180555555555556</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>0.09166666666666666</v>
+        <v>0.08472222222222223</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A15</t>
+          <t>D43</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -686,18 +686,18 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>0.075</v>
+        <v>0.07291666666666667</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>0.1006944444444444</v>
+        <v>0.09791666666666667</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>D46</t>
+          <t>F52</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -714,18 +714,18 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>0.06388888888888888</v>
+        <v>0.06805555555555555</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>0.08680555555555555</v>
+        <v>0.09097222222222222</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>F37</t>
+          <t>F32</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -742,18 +742,18 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>0.05972222222222223</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>0.08125</v>
+        <v>0.06458333333333334</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>F53</t>
+          <t>E11</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -770,14 +770,14 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>0.06597222222222222</v>
+        <v>0.04652777777777778</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>0.09236111111111112</v>
+        <v>0.07361111111111111</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A20</t>
+          <t>A15</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -798,18 +798,18 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.06875000000000001</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>0.08194444444444444</v>
+        <v>0.08958333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A19</t>
+          <t>D48</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -826,14 +826,14 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>0.04513888888888889</v>
+        <v>0.04652777777777778</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>0.07222222222222222</v>
+        <v>0.06875000000000001</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>F42</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -854,18 +854,18 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>0.07361111111111111</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>0.1</v>
+        <v>0.08402777777777778</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>C15</t>
+          <t>F58</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -882,18 +882,18 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.04930555555555555</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>0.09027777777777778</v>
+        <v>0.07569444444444444</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>C17</t>
+          <t>A20</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -910,18 +910,18 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>0.0763888888888889</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>0.1013888888888889</v>
+        <v>0.07847222222222222</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>B5</t>
+          <t>A19</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -938,18 +938,18 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>0.05</v>
+        <v>0.08263888888888889</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>0.07569444444444444</v>
+        <v>0.1083333333333333</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>F57</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -966,14 +966,14 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>0.07013888888888889</v>
+        <v>0.04236111111111111</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>0.09444444444444444</v>
+        <v>0.06805555555555555</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C16</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -994,14 +994,14 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>0.07777777777777778</v>
+        <v>0.07916666666666666</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>0.09861111111111111</v>
+        <v>0.1020833333333333</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>D47</t>
+          <t>C13</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1022,18 +1022,18 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>0.04375</v>
+        <v>0.05763888888888889</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>0.06597222222222222</v>
+        <v>0.08125</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>D34</t>
+          <t>B6</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1050,18 +1050,18 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>0.06041666666666667</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>0.08611111111111111</v>
+        <v>0.09027777777777778</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>F56</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1078,18 +1078,18 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>0.05208333333333334</v>
+        <v>0.05277777777777778</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>0.07916666666666666</v>
+        <v>0.07847222222222222</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>A6</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1106,14 +1106,14 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.09236111111111112</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>0.1375</v>
+        <v>0.1145833333333333</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>A17</t>
+          <t>D41</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1134,18 +1134,18 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>0.1173611111111111</v>
+        <v>0.1215277777777778</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>0.1416666666666667</v>
+        <v>0.1423611111111111</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>C14</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1162,18 +1162,18 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>0.09513888888888888</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>0.1173611111111111</v>
+        <v>0.125</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>A21</t>
+          <t>D43</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1190,18 +1190,18 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>0.1006944444444444</v>
+        <v>0.1083333333333333</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>0.1236111111111111</v>
+        <v>0.13125</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>B8</t>
+          <t>F41</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1218,18 +1218,18 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>0.1055555555555556</v>
+        <v>0.1194444444444445</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>0.13125</v>
+        <v>0.1451388888888889</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>C19</t>
+          <t>A6</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1246,14 +1246,14 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>0.09097222222222222</v>
+        <v>0.08541666666666667</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>0.1118055555555556</v>
+        <v>0.1076388888888889</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>F42</t>
+          <t>A18</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1274,14 +1274,14 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>0.08611111111111111</v>
+        <v>0.1083333333333333</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1354166666666667</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>D36</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1302,18 +1302,18 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>0.09375</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>0.1145833333333333</v>
+        <v>0.1340277777777778</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A21</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1330,14 +1330,14 @@
         <v>34</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>0.1131944444444444</v>
+        <v>0.1097222222222222</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>0.1375</v>
+        <v>0.1340277777777778</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>F41</t>
+          <t>B7</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -1358,18 +1358,18 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>0.09236111111111112</v>
+        <v>0.1055555555555556</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>0.1152777777777778</v>
+        <v>0.1305555555555556</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>D32</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1386,18 +1386,18 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>0.1138888888888889</v>
+        <v>0.1229166666666667</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>0.1347222222222222</v>
+        <v>0.1465277777777778</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>F35</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1414,14 +1414,14 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>0.08680555555555555</v>
+        <v>0.08472222222222223</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>0.1125</v>
+        <v>0.1090277777777778</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>D34</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -1442,18 +1442,18 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>0.1541666666666667</v>
+        <v>0.1319444444444444</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>0.1763888888888889</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>F56</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1470,14 +1470,14 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>0.1465277777777778</v>
+        <v>0.1569444444444444</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>0.1736111111111111</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>F50</t>
+          <t>F33</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -1498,18 +1498,18 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>0.1548611111111111</v>
+        <v>0.1381944444444445</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>0.1791666666666667</v>
+        <v>0.1625</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>A17</t>
+          <t>D44</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1526,14 +1526,14 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="n">
+        <v>0.1319444444444444</v>
+      </c>
+      <c r="D42" s="1" t="n">
         <v>0.1569444444444444</v>
       </c>
-      <c r="D42" s="1" t="n">
-        <v>0.1784722222222222</v>
-      </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>F60</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -1554,14 +1554,14 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>0.15</v>
+        <v>0.1416666666666667</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>0.175</v>
+        <v>0.1625</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>A19</t>
+          <t>D45</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -1582,18 +1582,18 @@
         <v>43</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>0.1541666666666667</v>
+        <v>0.1284722222222222</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>0.1798611111111111</v>
+        <v>0.1493055555555556</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A18</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1610,14 +1610,14 @@
         <v>44</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>0.15</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>0.1715277777777778</v>
+        <v>0.1819444444444444</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>F52</t>
+          <t>A18</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -1638,14 +1638,14 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>0.1506944444444444</v>
+        <v>0.1569444444444444</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>0.1756944444444444</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>D42</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -1666,14 +1666,14 @@
         <v>46</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>0.1583333333333333</v>
+        <v>0.1479166666666667</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>0.1819444444444444</v>
+        <v>0.16875</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>D46</t>
+          <t>F55</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -1694,18 +1694,18 @@
         <v>47</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>0.1479166666666667</v>
+        <v>0.1625</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>0.1694444444444445</v>
+        <v>0.1840277777777778</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>B5</t>
+          <t>D41</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -1722,18 +1722,18 @@
         <v>48</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>0.1347222222222222</v>
+        <v>0.1375</v>
       </c>
       <c r="D49" s="1" t="n">
         <v>0.1590277777777778</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -1750,14 +1750,14 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>0.1590277777777778</v>
+        <v>0.1361111111111111</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>0.1798611111111111</v>
+        <v>0.1631944444444444</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>B6</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -1778,18 +1778,18 @@
         <v>50</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>0.1604166666666667</v>
+        <v>0.1652777777777778</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>0.18125</v>
+        <v>0.1916666666666667</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>F60</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
